--- a/Projects/Federal Reserve Data/SUR2008-10-31-2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/SUR2008-10-31-2020-02-29.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>CA_FFR</t>
+    <t>CA_LF</t>
   </si>
   <si>
-    <t>CA_LF</t>
+    <t>CA_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>0.8376754650626033</v>
+      </c>
+      <c r="C2">
         <v>10.56400606921197</v>
-      </c>
-      <c r="C2">
-        <v>0.8376754650626034</v>
       </c>
     </row>
     <row r="3" spans="1:3">
